--- a/Files/CJ/Tabulka četby.xlsx
+++ b/Files/CJ/Tabulka četby.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t xml:space="preserve">Seznam literárních děl k ústní maturitní zkoušce z ČJL</t>
   </si>
@@ -50,6 +50,9 @@
 ve škol. seznamu</t>
   </si>
   <si>
+    <t xml:space="preserve">Přečteno</t>
+  </si>
+  <si>
     <t xml:space="preserve">Světová a česká literatura do konce 18. století (min. 2 literární díla)</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t xml:space="preserve">Král Oidipus</t>
   </si>
   <si>
+    <t xml:space="preserve">Antigona</t>
+  </si>
+  <si>
     <t xml:space="preserve">Světová a česká literatura 19. století (min. 3 literární díla)</t>
   </si>
   <si>
@@ -80,6 +86,12 @@
     <t xml:space="preserve">Havran </t>
   </si>
   <si>
+    <t xml:space="preserve">Mrstíkové</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryša</t>
+  </si>
+  <si>
     <t xml:space="preserve">Světová literatura 20. a 21. století (min. 4 literární díla)</t>
   </si>
   <si>
@@ -152,16 +164,37 @@
     <t xml:space="preserve">Krysař</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuks</t>
   </si>
   <si>
-    <t xml:space="preserve">Spalovač mrtvol (rozečteno)</t>
+    <t xml:space="preserve">Spalovač mrtvol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Havel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kytice</t>
   </si>
   <si>
     <t xml:space="preserve">datum:</t>
   </si>
   <si>
+    <t xml:space="preserve">11.2 2026</t>
+  </si>
+  <si>
     <t xml:space="preserve">podpis: Valenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://creativehill.cz/data/%C4%8CJ-%C5%A0KOLN%C3%8D-SEZNAM-LITER%C3%81RN%C3%8DCH-D%C4%9AL-2024-2025_HP-%C3%BAprava.pdf</t>
   </si>
 </sst>
 </file>
@@ -210,15 +243,33 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -240,6 +291,41 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -266,80 +352,124 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -352,6 +482,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -532,372 +722,430 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="46.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="11" t="n">
+        <v>24</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="17" t="n">
+        <v>39</v>
+      </c>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="B14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="B16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>52</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="B17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="11" t="n">
+        <v>56</v>
+      </c>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>59</v>
+      </c>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>69</v>
+      </c>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>76</v>
+      </c>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="11" t="n">
+        <v>85</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>93</v>
+      </c>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="10" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="10" t="n">
+      <c r="B24" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="17" t="n">
+        <v>108</v>
+      </c>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="14" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="C25" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="11" t="n">
+        <v>74</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="B26" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="26" t="n">
+        <v>99</v>
+      </c>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="B27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="11" t="n">
+        <v>104</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="B28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="11" t="n">
+        <v>113</v>
+      </c>
+      <c r="E28" s="28"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="11" t="n">
+        <v>106</v>
+      </c>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="10" t="n">
+      <c r="D30" s="11"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="10" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="10" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="10" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="10" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="10" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="14" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="10" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="18" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="10" t="n">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="10" t="n">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -908,6 +1156,9 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A23:C23"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A33" r:id="rId1" display="https://creativehill.cz/data/%C4%8CJ-%C5%A0KOLN%C3%8D-SEZNAM-LITER%C3%81RN%C3%8DCH-D%C4%9AL-2024-2025_HP-%C3%BAprava.pdf"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="99" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
